--- a/examples/Config/Excel/UnitConfig.xlsx
+++ b/examples/Config/Excel/UnitConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fantasy/Code/Git/Fantasy/Examples/Config/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40E190B-DF6E-EB40-B300-8951CC8E297A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473BD6C4-B133-D944-88DF-71A3D83AF876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -68,6 +68,22 @@
   </si>
   <si>
     <t>Unit01</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>StringDictionaryConfig</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dic</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典类型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"1":"Idle","2":"Run"}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -496,10 +512,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -507,9 +523,10 @@
     <col min="3" max="3" width="6.1640625" customWidth="1"/>
     <col min="4" max="4" width="17.83203125" customWidth="1"/>
     <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -525,16 +542,20 @@
       <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="F1" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="18">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="18">
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
@@ -547,8 +568,11 @@
       <c r="E3" s="5">
         <v>0</v>
       </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="18">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="18">
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
@@ -561,8 +585,11 @@
       <c r="E4" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="F4" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" ht="16">
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="16">
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -575,16 +602,20 @@
       <c r="E5" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="F5" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" ht="16">
+    <row r="6" spans="1:6" s="1" customFormat="1" ht="16">
       <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" ht="16">
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="16">
       <c r="B7" s="6">
         <v>1</v>
       </c>
@@ -596,6 +627,9 @@
       </c>
       <c r="E7" s="7" t="s">
         <v>14</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/examples/Config/Excel/UnitConfig.xlsx
+++ b/examples/Config/Excel/UnitConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10511"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fantasy/Code/Git/Fantasy/Examples/Config/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473BD6C4-B133-D944-88DF-71A3D83AF876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2137DC6C-0862-A04B-AC82-2E39F3599AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -515,7 +515,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
